--- a/Data/Input.xlsx
+++ b/Data/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Java\Practical_Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7E0A12-9535-463D-A16C-F68C6EA7B69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA08FB7-8EA6-44C8-A584-9A9D9B690CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
